--- a/TotalSearch/TestFiles/02.xlsx
+++ b/TotalSearch/TestFiles/02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>京东平台卖家销售并发货的商品，由平台卖家提供发票和相应的售后服务。请您放心购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本站商品信息均来自于合作方，其真实性、准确性和合法性由信息拥有者（合作方）负责。本站不提供任何保证，并不承担任何法律责任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -396,12 +404,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -409,12 +425,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
